--- a/artfynd/A 49479-2024 artfynd.xlsx
+++ b/artfynd/A 49479-2024 artfynd.xlsx
@@ -1296,12 +1296,7 @@
         <v>122692863</v>
       </c>
       <c r="B8" t="n">
-        <v>56688</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1403,12 +1398,7 @@
         <v>122692859</v>
       </c>
       <c r="B9" t="n">
-        <v>56688</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -2329,12 +2319,7 @@
         <v>122692862</v>
       </c>
       <c r="B18" t="n">
-        <v>56688</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2845,12 +2830,7 @@
         <v>122692908</v>
       </c>
       <c r="B23" t="n">
-        <v>56688</v>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3463,12 +3443,7 @@
         <v>122692860</v>
       </c>
       <c r="B29" t="n">
-        <v>56688</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3570,12 +3545,7 @@
         <v>122692861</v>
       </c>
       <c r="B30" t="n">
-        <v>56688</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -5517,12 +5487,7 @@
         <v>122786887</v>
       </c>
       <c r="B49" t="n">
-        <v>56691</v>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Ovaliderad</t>
-        </is>
+        <v>57073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
